--- a/public/admin/archivos/FORMATO_PRODUCTOS.xlsx
+++ b/public/admin/archivos/FORMATO_PRODUCTOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEOPAGUPA\public\admin\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\multiusuarios\public\admin\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>CODIGO</t>
   </si>
@@ -96,13 +97,85 @@
   </si>
   <si>
     <t>SUCURSAL</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Tiene</t>
+  </si>
+  <si>
+    <t>COMPRA</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Compra/Venta</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>SIN MARCA</t>
+  </si>
+  <si>
+    <t>SIN CATEGORIA</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>SIN GRUPO</t>
+  </si>
+  <si>
+    <t>UNIDAD</t>
+  </si>
+  <si>
+    <t>SIN UNIDAD</t>
+  </si>
+  <si>
+    <t>SIN TAMAÑO</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>MATRIZ COMERCIAL</t>
+  </si>
+  <si>
+    <t>articulo 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +187,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,10 +241,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,6 +539,25 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -507,16 +620,16 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -524,8 +637,247 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44907</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:K2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$D$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$G$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$H$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$I$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>X2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>